--- a/doc/座標計算.xlsx
+++ b/doc/座標計算.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>sample text</t>
     <phoneticPr fontId="1"/>
@@ -279,6 +279,10 @@
   </si>
   <si>
     <t>bottom(y)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>command</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -681,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -801,7 +805,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>48</v>
@@ -810,13 +814,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>120</v>
       </c>
       <c r="H5" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I5" s="1">
         <v>26</v>
@@ -827,7 +831,7 @@
       </c>
       <c r="K5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:38px; top:454px; text-align:left;'&gt;&lt;span id='skil_a1_link'&gt;居合い斬り&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:454px; text-align:left;'&gt;&lt;span id='skil_a1_command'&gt;居合い斬り&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -835,7 +839,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>48</v>
@@ -844,13 +848,13 @@
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="G6" s="1">
         <v>120</v>
       </c>
       <c r="H6" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I6" s="1">
         <v>26</v>
@@ -861,7 +865,7 @@
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:332px; top:454px; text-align:left;'&gt;&lt;span id='skil_a2_link'&gt;たこ殴り&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:454px; text-align:left;'&gt;&lt;span id='skil_a2_command'&gt;たこ殴り&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -869,7 +873,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>48</v>
@@ -878,13 +882,13 @@
         <v>7</v>
       </c>
       <c r="F7" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
         <v>88</v>
       </c>
       <c r="H7" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I7" s="1">
         <v>26</v>
@@ -895,7 +899,7 @@
       </c>
       <c r="K7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:38px; top:486px; text-align:left;'&gt;&lt;span id='skil_a3_link'&gt;羽交い締め&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:486px; text-align:left;'&gt;&lt;span id='skil_a3_command'&gt;羽交い締め&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -903,7 +907,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>48</v>
@@ -912,13 +916,13 @@
         <v>8</v>
       </c>
       <c r="F8" s="1">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="G8" s="1">
         <v>88</v>
       </c>
       <c r="H8" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I8" s="1">
         <v>26</v>
@@ -929,7 +933,7 @@
       </c>
       <c r="K8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:332px; top:486px; text-align:left;'&gt;&lt;span id='skil_a4_link'&gt;防御&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:486px; text-align:left;'&gt;&lt;span id='skil_a4_command'&gt;防御&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -937,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
@@ -963,7 +967,7 @@
       </c>
       <c r="K9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:420px; height:26px; left:38px; top:530px; text-align:left;'&gt;&lt;span id='w_effect_link'&gt;敵に10のダメージ&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='label' style='width:420px; height:26px; left:38px; top:530px; text-align:left;'&gt;&lt;span id='w_effect_label'&gt;敵に10のダメージ&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -971,7 +975,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>48</v>
@@ -997,7 +1001,7 @@
       </c>
       <c r="K10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:420px; height:26px; left:38px; top:562px; text-align:left;'&gt;&lt;span id='l_effect_link'&gt;敵に5のダメージ&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='label' style='width:420px; height:26px; left:38px; top:562px; text-align:left;'&gt;&lt;span id='l_effect_label'&gt;敵に5のダメージ&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -1124,7 +1128,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>48</v>
@@ -1133,13 +1137,13 @@
         <v>13</v>
       </c>
       <c r="F15" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1">
         <v>120</v>
       </c>
       <c r="H15" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I15" s="1">
         <v>26</v>
@@ -1150,7 +1154,7 @@
       </c>
       <c r="K15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:38px; top:454px; text-align:left;'&gt;&lt;span id='skil_b1_link'&gt;着せ替える&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:454px; text-align:left;'&gt;&lt;span id='skil_b1_command'&gt;着せ替える&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
@@ -1158,7 +1162,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -1167,13 +1171,13 @@
         <v>14</v>
       </c>
       <c r="F16" s="1">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="G16" s="1">
         <v>120</v>
       </c>
       <c r="H16" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I16" s="1">
         <v>26</v>
@@ -1184,7 +1188,7 @@
       </c>
       <c r="K16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:332px; top:454px; text-align:left;'&gt;&lt;span id='skil_b2_link'&gt;なでる&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:454px; text-align:left;'&gt;&lt;span id='skil_b2_command'&gt;なでる&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -1192,7 +1196,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>48</v>
@@ -1201,13 +1205,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1">
         <v>88</v>
       </c>
       <c r="H17" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I17" s="1">
         <v>26</v>
@@ -1218,7 +1222,7 @@
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:38px; top:486px; text-align:left;'&gt;&lt;span id='skil_b3_link'&gt;お菓子をあげる&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:486px; text-align:left;'&gt;&lt;span id='skil_b3_command'&gt;お菓子をあげる&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
@@ -1226,7 +1230,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
@@ -1235,13 +1239,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="1">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="G18" s="1">
         <v>88</v>
       </c>
       <c r="H18" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I18" s="1">
         <v>26</v>
@@ -1252,7 +1256,7 @@
       </c>
       <c r="K18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:332px; top:486px; text-align:left;'&gt;&lt;span id='skil_b4_link'&gt;くすぐる&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:486px; text-align:left;'&gt;&lt;span id='skil_b4_command'&gt;くすぐる&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
@@ -1260,7 +1264,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>48</v>
@@ -1269,13 +1273,13 @@
         <v>17</v>
       </c>
       <c r="F19" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1">
         <v>56</v>
       </c>
       <c r="H19" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I19" s="1">
         <v>26</v>
@@ -1286,7 +1290,7 @@
       </c>
       <c r="K19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:38px; top:518px; text-align:left;'&gt;&lt;span id='skil_b5_link'&gt;抱き上げる&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:518px; text-align:left;'&gt;&lt;span id='skil_b5_command'&gt;抱き上げる&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
@@ -1294,7 +1298,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>48</v>
@@ -1303,13 +1307,13 @@
         <v>18</v>
       </c>
       <c r="F20" s="1">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="G20" s="1">
         <v>56</v>
       </c>
       <c r="H20" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I20" s="1">
         <v>26</v>
@@ -1320,7 +1324,7 @@
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:332px; top:518px; text-align:left;'&gt;&lt;span id='skil_b6_link'&gt;口説く&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:518px; text-align:left;'&gt;&lt;span id='skil_b6_command'&gt;口説く&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
@@ -1328,7 +1332,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>48</v>
@@ -1337,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1">
         <v>12</v>
       </c>
       <c r="H21" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I21" s="1">
         <v>26</v>
@@ -1354,7 +1358,7 @@
       </c>
       <c r="K21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:38px; top:562px; text-align:left;'&gt;&lt;span id='skil_b7_link'&gt;お説教をする&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:562px; text-align:left;'&gt;&lt;span id='skil_b7_command'&gt;お説教をする&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
@@ -1362,7 +1366,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>48</v>
@@ -1371,13 +1375,13 @@
         <v>20</v>
       </c>
       <c r="F22" s="1">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="G22" s="1">
         <v>12</v>
       </c>
       <c r="H22" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="I22" s="1">
         <v>26</v>
@@ -1388,7 +1392,7 @@
       </c>
       <c r="K22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:262px; height:26px; left:332px; top:562px; text-align:left;'&gt;&lt;span id='skil_b8_link'&gt;物置に閉じ込める&lt;/span&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:562px; text-align:left;'&gt;&lt;span id='skil_b8_command'&gt;物置に閉じ込める&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/doc/座標計算.xlsx
+++ b/doc/座標計算.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>sample text</t>
     <phoneticPr fontId="1"/>
@@ -185,56 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name_a1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name_a2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name_b2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>skil_b1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>skil_b2</t>
-  </si>
-  <si>
-    <t>skil_b3</t>
-  </si>
-  <si>
-    <t>skil_b4</t>
-  </si>
-  <si>
-    <t>skil_b5</t>
-  </si>
-  <si>
-    <t>skil_b6</t>
-  </si>
-  <si>
-    <t>skil_b7</t>
-  </si>
-  <si>
-    <t>skil_b8</t>
-  </si>
-  <si>
-    <t>skil_a1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>skil_a2</t>
-  </si>
-  <si>
-    <t>skil_a3</t>
-  </si>
-  <si>
-    <t>skil_a4</t>
-  </si>
-  <si>
     <t>time</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -283,6 +233,60 @@
   </si>
   <si>
     <t>command</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_name_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_name_e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b_name_e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_skill_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_skill_1</t>
+  </si>
+  <si>
+    <t>a_skill_2</t>
+  </si>
+  <si>
+    <t>a_skill_3</t>
+  </si>
+  <si>
+    <t>b_skil_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b_skil_1</t>
+  </si>
+  <si>
+    <t>b_skil_2</t>
+  </si>
+  <si>
+    <t>b_skil_3</t>
+  </si>
+  <si>
+    <t>b_skil_4</t>
+  </si>
+  <si>
+    <t>b_skil_5</t>
+  </si>
+  <si>
+    <t>b_skil_6</t>
+  </si>
+  <si>
+    <t>b_skil_7</t>
+  </si>
+  <si>
+    <t>command_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,6 +384,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -694,351 +701,382 @@
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.625" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>140</v>
+      </c>
+      <c r="H3" s="1">
+        <v>562</v>
+      </c>
+      <c r="I3" s="1">
+        <v>128</v>
+      </c>
+      <c r="J3" s="1">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <f>600-H3-J3</f>
+        <v>12</v>
+      </c>
+      <c r="L3" s="5" t="str">
+        <f>"&lt;div class='"&amp;$C3&amp;"' data-command-id='"&amp;$D3&amp;"' style='width:"&amp;$I3&amp;"px; height:"&amp;$J3&amp;"px; left:"&amp;$G3&amp;"px; top:"&amp;$K3&amp;"px; text-align:"&amp;$E3&amp;";'&gt;&lt;span id='"&amp;$B3&amp;"_"&amp;$C3&amp;"'&gt;"&amp;$F3&amp;"&lt;/span&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='label' data-command-id='-1' style='width:128px; height:26px; left:140px; top:12px; text-align:left;'&gt;&lt;span id='a_name_y_label'&gt;勇者Ｆ&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>332</v>
+      </c>
+      <c r="H4" s="1">
+        <v>562</v>
+      </c>
+      <c r="I4" s="1">
+        <v>128</v>
+      </c>
+      <c r="J4" s="1">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K22" si="0">600-H4-J4</f>
+        <v>12</v>
+      </c>
+      <c r="L4" s="5" t="str">
+        <f t="shared" ref="L4:L22" si="1">"&lt;div class='"&amp;$C4&amp;"' data-command-id='"&amp;$D4&amp;"' style='width:"&amp;$I4&amp;"px; height:"&amp;$J4&amp;"px; left:"&amp;$G4&amp;"px; top:"&amp;$K4&amp;"px; text-align:"&amp;$E4&amp;";'&gt;&lt;span id='"&amp;$B4&amp;"_"&amp;$C4&amp;"'&gt;"&amp;$F4&amp;"&lt;/span&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='label' data-command-id='-1' style='width:128px; height:26px; left:332px; top:12px; text-align:right;'&gt;&lt;span id='a_name_e_label'&gt;ねずみ戦士&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>120</v>
+      </c>
+      <c r="I5" s="1">
+        <v>280</v>
+      </c>
+      <c r="J5" s="1">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>454</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='10' style='width:280px; height:26px; left:20px; top:454px; text-align:left;'&gt;&lt;span id='a_skill_0_command'&gt;居合い斬り&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>314</v>
+      </c>
+      <c r="H6" s="1">
+        <v>120</v>
+      </c>
+      <c r="I6" s="1">
+        <v>280</v>
+      </c>
+      <c r="J6" s="1">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>454</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='11' style='width:280px; height:26px; left:314px; top:454px; text-align:left;'&gt;&lt;span id='a_skill_1_command'&gt;たこ殴り&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>88</v>
+      </c>
+      <c r="I7" s="1">
+        <v>280</v>
+      </c>
+      <c r="J7" s="1">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='12' style='width:280px; height:26px; left:20px; top:486px; text-align:left;'&gt;&lt;span id='a_skill_2_command'&gt;羽交い締め&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>140</v>
-      </c>
-      <c r="G3" s="1">
-        <v>562</v>
-      </c>
-      <c r="H3" s="1">
-        <v>128</v>
-      </c>
-      <c r="I3" s="1">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2">
-        <f>600-G3-I3</f>
-        <v>12</v>
-      </c>
-      <c r="K3" s="5" t="str">
-        <f>"&lt;div class='"&amp;$C3&amp;"' style='width:"&amp;$H3&amp;"px; height:"&amp;$I3&amp;"px; left:"&amp;$F3&amp;"px; top:"&amp;$J3&amp;"px; text-align:"&amp;$D3&amp;";'&gt;&lt;span id='"&amp;$B3&amp;"_"&amp;$C3&amp;"'&gt;"&amp;$E3&amp;"&lt;/span&gt;&lt;/div&gt;"</f>
-        <v>&lt;div class='label' style='width:128px; height:26px; left:140px; top:12px; text-align:left;'&gt;&lt;span id='name_a1_label'&gt;勇者Ｆ&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>332</v>
-      </c>
-      <c r="G4" s="1">
-        <v>562</v>
-      </c>
-      <c r="H4" s="1">
-        <v>128</v>
-      </c>
-      <c r="I4" s="1">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J22" si="0">600-G4-I4</f>
-        <v>12</v>
-      </c>
-      <c r="K4" s="5" t="str">
-        <f t="shared" ref="K4:K22" si="1">"&lt;div class='"&amp;$C4&amp;"' style='width:"&amp;$H4&amp;"px; height:"&amp;$I4&amp;"px; left:"&amp;$F4&amp;"px; top:"&amp;$J4&amp;"px; text-align:"&amp;$D4&amp;";'&gt;&lt;span id='"&amp;$B4&amp;"_"&amp;$C4&amp;"'&gt;"&amp;$E4&amp;"&lt;/span&gt;&lt;/div&gt;"</f>
-        <v>&lt;div class='label' style='width:128px; height:26px; left:332px; top:12px; text-align:right;'&gt;&lt;span id='name_a2_label'&gt;ねずみ戦士&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>120</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>314</v>
+      </c>
+      <c r="H8" s="1">
+        <v>88</v>
+      </c>
+      <c r="I8" s="1">
         <v>280</v>
       </c>
-      <c r="I5" s="1">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="0"/>
-        <v>454</v>
-      </c>
-      <c r="K5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:454px; text-align:left;'&gt;&lt;span id='skil_a1_command'&gt;居合い斬り&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1">
-        <v>314</v>
-      </c>
-      <c r="G6" s="1">
-        <v>120</v>
-      </c>
-      <c r="H6" s="1">
-        <v>280</v>
-      </c>
-      <c r="I6" s="1">
-        <v>26</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>454</v>
-      </c>
-      <c r="K6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:454px; text-align:left;'&gt;&lt;span id='skil_a2_command'&gt;たこ殴り&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1">
-        <v>88</v>
-      </c>
-      <c r="H7" s="1">
-        <v>280</v>
-      </c>
-      <c r="I7" s="1">
-        <v>26</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="J8" s="1">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="0"/>
         <v>486</v>
       </c>
-      <c r="K7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:486px; text-align:left;'&gt;&lt;span id='skil_a3_command'&gt;羽交い締め&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>314</v>
-      </c>
-      <c r="G8" s="1">
-        <v>88</v>
-      </c>
-      <c r="H8" s="1">
-        <v>280</v>
-      </c>
-      <c r="I8" s="1">
-        <v>26</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>486</v>
-      </c>
-      <c r="K8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:486px; text-align:left;'&gt;&lt;span id='skil_a4_command'&gt;防御&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='13' style='width:280px; height:26px; left:314px; top:486px; text-align:left;'&gt;&lt;span id='a_skill_3_command'&gt;防御&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-1</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>38</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>44</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>420</v>
       </c>
-      <c r="I9" s="1">
-        <v>26</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
-      <c r="K9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='label' style='width:420px; height:26px; left:38px; top:530px; text-align:left;'&gt;&lt;span id='w_effect_label'&gt;敵に10のダメージ&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="L9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='label' data-command-id='-1' style='width:420px; height:26px; left:38px; top:530px; text-align:left;'&gt;&lt;span id='w_effect_label'&gt;敵に10のダメージ&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-1</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>38</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>12</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>420</v>
       </c>
-      <c r="I10" s="1">
-        <v>26</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="K10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='label' style='width:420px; height:26px; left:38px; top:562px; text-align:left;'&gt;&lt;span id='l_effect_label'&gt;敵に5のダメージ&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='label' data-command-id='-1' style='width:420px; height:26px; left:38px; top:562px; text-align:left;'&gt;&lt;span id='l_effect_label'&gt;敵に5のダメージ&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>476</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>28</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>112</v>
       </c>
-      <c r="I11" s="1">
-        <v>26</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="0"/>
         <v>546</v>
       </c>
-      <c r="K11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='link' style='width:112px; height:26px; left:476px; top:546px; text-align:center;'&gt;&lt;span id='item_link'&gt;アイテム&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="L11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='link' data-command-id='20' style='width:112px; height:26px; left:476px; top:546px; text-align:center;'&gt;&lt;span id='item_link'&gt;アイテム&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1047,352 +1085,383 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='' style='width:px; height:px; left:px; top:px; text-align:;'&gt;&lt;span id='_'&gt;&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='' data-command-id='' style='width:px; height:px; left:px; top:px; text-align:;'&gt;&lt;span id='_'&gt;&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1">
+        <v>164</v>
+      </c>
+      <c r="H13" s="1">
+        <v>562</v>
+      </c>
+      <c r="I13" s="1">
+        <v>104</v>
+      </c>
+      <c r="J13" s="1">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='label' data-command-id='-1' style='width:104px; height:26px; left:164px; top:12px; text-align:left;'&gt;&lt;span id='time_label'&gt;残り時間&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>F$4</f>
+        <v>ねずみ戦士</v>
+      </c>
+      <c r="G14" s="1">
+        <v>332</v>
+      </c>
+      <c r="H14" s="1">
+        <v>562</v>
+      </c>
+      <c r="I14" s="1">
+        <v>128</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14" si="2">J$4</f>
+        <v>26</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='label' data-command-id='-1' style='width:128px; height:26px; left:332px; top:12px; text-align:right;'&gt;&lt;span id='b_name_e_label'&gt;ねずみ戦士&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1">
+        <v>120</v>
+      </c>
+      <c r="I15" s="1">
+        <v>280</v>
+      </c>
+      <c r="J15" s="1">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>454</v>
+      </c>
+      <c r="L15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='30' style='width:280px; height:26px; left:20px; top:454px; text-align:left;'&gt;&lt;span id='b_skil_0_command'&gt;着せ替える&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1">
+        <v>314</v>
+      </c>
+      <c r="H16" s="1">
+        <v>120</v>
+      </c>
+      <c r="I16" s="1">
+        <v>280</v>
+      </c>
+      <c r="J16" s="1">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>454</v>
+      </c>
+      <c r="L16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='31' style='width:280px; height:26px; left:314px; top:454px; text-align:left;'&gt;&lt;span id='b_skil_1_command'&gt;なでる&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1">
+        <v>88</v>
+      </c>
+      <c r="I17" s="1">
+        <v>280</v>
+      </c>
+      <c r="J17" s="1">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
+      <c r="L17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='32' style='width:280px; height:26px; left:20px; top:486px; text-align:left;'&gt;&lt;span id='b_skil_2_command'&gt;お菓子をあげる&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1">
+        <v>314</v>
+      </c>
+      <c r="H18" s="1">
+        <v>88</v>
+      </c>
+      <c r="I18" s="1">
+        <v>280</v>
+      </c>
+      <c r="J18" s="1">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
+      <c r="L18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='33' style='width:280px; height:26px; left:314px; top:486px; text-align:left;'&gt;&lt;span id='b_skil_3_command'&gt;くすぐる&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1">
+        <v>56</v>
+      </c>
+      <c r="I19" s="1">
+        <v>280</v>
+      </c>
+      <c r="J19" s="1">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="0"/>
+        <v>518</v>
+      </c>
+      <c r="L19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='34' style='width:280px; height:26px; left:20px; top:518px; text-align:left;'&gt;&lt;span id='b_skil_4_command'&gt;抱き上げる&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1">
+        <v>314</v>
+      </c>
+      <c r="H20" s="1">
+        <v>56</v>
+      </c>
+      <c r="I20" s="1">
+        <v>280</v>
+      </c>
+      <c r="J20" s="1">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="0"/>
+        <v>518</v>
+      </c>
+      <c r="L20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='35' style='width:280px; height:26px; left:314px; top:518px; text-align:left;'&gt;&lt;span id='b_skil_5_command'&gt;口説く&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1">
         <v>12</v>
       </c>
-      <c r="F13" s="1">
-        <v>164</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="I21" s="1">
+        <v>280</v>
+      </c>
+      <c r="J21" s="1">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="H13" s="1">
-        <v>104</v>
-      </c>
-      <c r="I13" s="1">
-        <v>26</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
+      <c r="L21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='36' style='width:280px; height:26px; left:20px; top:562px; text-align:left;'&gt;&lt;span id='b_skil_6_command'&gt;お説教をする&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1">
+        <v>314</v>
+      </c>
+      <c r="H22" s="1">
         <v>12</v>
       </c>
-      <c r="K13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='label' style='width:104px; height:26px; left:164px; top:12px; text-align:left;'&gt;&lt;span id='time_label'&gt;残り時間&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f>E$4</f>
-        <v>ねずみ戦士</v>
-      </c>
-      <c r="F14" s="1">
-        <v>332</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="I22" s="1">
+        <v>280</v>
+      </c>
+      <c r="J22" s="1">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="H14" s="1">
-        <v>128</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" ref="I14" si="2">I$4</f>
-        <v>26</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='label' style='width:128px; height:26px; left:332px; top:12px; text-align:right;'&gt;&lt;span id='name_b2_label'&gt;ねずみ戦士&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1">
-        <v>120</v>
-      </c>
-      <c r="H15" s="1">
-        <v>280</v>
-      </c>
-      <c r="I15" s="1">
-        <v>26</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>454</v>
-      </c>
-      <c r="K15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:454px; text-align:left;'&gt;&lt;span id='skil_b1_command'&gt;着せ替える&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1">
-        <v>314</v>
-      </c>
-      <c r="G16" s="1">
-        <v>120</v>
-      </c>
-      <c r="H16" s="1">
-        <v>280</v>
-      </c>
-      <c r="I16" s="1">
-        <v>26</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>454</v>
-      </c>
-      <c r="K16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:454px; text-align:left;'&gt;&lt;span id='skil_b2_command'&gt;なでる&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1">
-        <v>20</v>
-      </c>
-      <c r="G17" s="1">
-        <v>88</v>
-      </c>
-      <c r="H17" s="1">
-        <v>280</v>
-      </c>
-      <c r="I17" s="1">
-        <v>26</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>486</v>
-      </c>
-      <c r="K17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:486px; text-align:left;'&gt;&lt;span id='skil_b3_command'&gt;お菓子をあげる&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1">
-        <v>314</v>
-      </c>
-      <c r="G18" s="1">
-        <v>88</v>
-      </c>
-      <c r="H18" s="1">
-        <v>280</v>
-      </c>
-      <c r="I18" s="1">
-        <v>26</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="0"/>
-        <v>486</v>
-      </c>
-      <c r="K18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:486px; text-align:left;'&gt;&lt;span id='skil_b4_command'&gt;くすぐる&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1">
-        <v>56</v>
-      </c>
-      <c r="H19" s="1">
-        <v>280</v>
-      </c>
-      <c r="I19" s="1">
-        <v>26</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="0"/>
-        <v>518</v>
-      </c>
-      <c r="K19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:518px; text-align:left;'&gt;&lt;span id='skil_b5_command'&gt;抱き上げる&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1">
-        <v>314</v>
-      </c>
-      <c r="G20" s="1">
-        <v>56</v>
-      </c>
-      <c r="H20" s="1">
-        <v>280</v>
-      </c>
-      <c r="I20" s="1">
-        <v>26</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="0"/>
-        <v>518</v>
-      </c>
-      <c r="K20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:518px; text-align:left;'&gt;&lt;span id='skil_b6_command'&gt;口説く&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1">
-        <v>20</v>
-      </c>
-      <c r="G21" s="1">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1">
-        <v>280</v>
-      </c>
-      <c r="I21" s="1">
-        <v>26</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="0"/>
-        <v>562</v>
-      </c>
-      <c r="K21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:20px; top:562px; text-align:left;'&gt;&lt;span id='skil_b7_command'&gt;お説教をする&lt;/span&gt;&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1">
-        <v>314</v>
-      </c>
-      <c r="G22" s="1">
-        <v>12</v>
-      </c>
-      <c r="H22" s="1">
-        <v>280</v>
-      </c>
-      <c r="I22" s="1">
-        <v>26</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="0"/>
-        <v>562</v>
-      </c>
-      <c r="K22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;div class='command' style='width:280px; height:26px; left:314px; top:562px; text-align:left;'&gt;&lt;span id='skil_b8_command'&gt;物置に閉じ込める&lt;/span&gt;&lt;/div&gt;</v>
+      <c r="L22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='command' data-command-id='37' style='width:280px; height:26px; left:314px; top:562px; text-align:left;'&gt;&lt;span id='b_skil_7_command'&gt;物置に閉じ込める&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
   </sheetData>
